--- a/kaiseki/データ解析.xlsx
+++ b/kaiseki/データ解析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CDA040-06CF-4E99-8475-F793232714BF}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D7B82D-1C54-4384-9E98-92BDBD6EA3D3}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="0" windowWidth="15600" windowHeight="15600" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
+    <workbookView xWindow="10830" yWindow="645" windowWidth="17805" windowHeight="13575" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
   </bookViews>
   <sheets>
     <sheet name="被験者結果" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="91">
   <si>
     <t>imahashi</t>
     <phoneticPr fontId="1"/>
@@ -466,6 +466,10 @@
     <rPh sb="0" eb="3">
       <t>ジカンサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">p </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +923,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -934,10 +941,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3374,12 +3377,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -3396,14 +3401,12 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4107,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10947366-0B39-4151-9642-5AB3694F9A76}">
-  <dimension ref="A2:V12"/>
+  <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4193,16 +4196,16 @@
       <c r="G3" t="s">
         <v>78</v>
       </c>
-      <c r="H3">
-        <v>0.22403678158713786</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="38">
+        <v>0.224036781587138</v>
+      </c>
+      <c r="I3" s="38">
         <v>0.27962024295566434</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="38">
         <v>0.23236164020953864</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="38">
         <v>0.27963219707386583</v>
       </c>
       <c r="M3" t="s">
@@ -4255,16 +4258,16 @@
       <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="36">
         <v>0.56811079522568486</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="36">
         <v>0.48006689985067241</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="36">
         <v>0.13754380265013469</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="36">
         <v>8.591172716943625E-2</v>
       </c>
       <c r="M4" t="s">
@@ -4318,16 +4321,16 @@
       <c r="G5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="36">
         <v>-0.36219140183226983</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="36">
         <v>-0.40578039344814054</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="36">
         <v>-5.0526899297465552E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="36">
         <v>-8.0151144889957379E-2</v>
       </c>
     </row>
@@ -4351,16 +4354,16 @@
       <c r="G6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="36">
         <v>-0.37038735896430619</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="36">
         <v>-0.38707869405707851</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="36">
         <v>1.0248072152566375E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="36">
         <v>3.0036303917423748E-3</v>
       </c>
     </row>
@@ -4384,16 +4387,16 @@
       <c r="G7" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="36">
         <v>-0.43321104887977291</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="36">
         <v>-0.4003508713332854</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="36">
         <v>6.2896431413750578E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="36">
         <v>6.40521899641288E-2</v>
       </c>
     </row>
@@ -4401,51 +4404,51 @@
       <c r="G8" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="36">
         <v>-0.48839594686475862</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="36">
         <v>-0.44103467211613812</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="36">
         <v>9.0789414130699853E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="36">
         <v>3.8587950541837765E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-0.50036175125076687</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-0.44854103451392513</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.15229458285295416</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6.4046876324730592E-2</v>
+        <v>89</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0.14354082025273718</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.14096978712633512</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0.3482512226383539</v>
+      </c>
+      <c r="K9" s="36">
+        <v>0.27200642305844075</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.14354082025273718</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.14096978712633512</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.3482512226383539</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.27200642305844075</v>
+        <v>88</v>
+      </c>
+      <c r="H10" s="36">
+        <v>-0.28536024536486626</v>
+      </c>
+      <c r="I10" s="36">
+        <v>-0.28612465874172838</v>
+      </c>
+      <c r="J10" s="36">
+        <v>-0.1400231330350947</v>
+      </c>
+      <c r="K10" s="36">
+        <v>-0.13860128920086992</v>
       </c>
       <c r="N10" t="s">
         <v>78</v>
@@ -4476,21 +4479,6 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-0.28536024536486626</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-0.28612465874172838</v>
-      </c>
-      <c r="J11" s="2">
-        <v>-0.1400231330350947</v>
-      </c>
-      <c r="K11" s="2">
-        <v>-0.13860128920086992</v>
-      </c>
       <c r="M11" t="s">
         <v>81</v>
       </c>
@@ -4523,6 +4511,21 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
       <c r="M12" t="s">
         <v>82</v>
       </c>
@@ -4552,6 +4555,75 @@
       </c>
       <c r="V12" s="2">
         <v>-0.13860128920086992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="36">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I13" s="36">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J13" s="36">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K13" s="36">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.9036158713245404E-7</v>
+      </c>
+      <c r="I14">
+        <v>2.6051368029561401E-5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.25618263711328748</v>
+      </c>
+      <c r="K14">
+        <v>0.47946964594978714</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="G16" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/kaiseki/データ解析.xlsx
+++ b/kaiseki/データ解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90D7B82D-1C54-4384-9E98-92BDBD6EA3D3}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E548768-59AD-4E08-8FD2-7497B215907C}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="645" windowWidth="17805" windowHeight="13575" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
   </bookViews>
   <sheets>
     <sheet name="被験者結果" sheetId="1" r:id="rId1"/>
@@ -920,11 +920,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,6 +941,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1253,131 +1257,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37" t="s">
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="37"/>
+      <c r="AE1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="W2" s="38"/>
+      <c r="X2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37" t="s">
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37" t="s">
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="37"/>
+      <c r="AE2" s="38"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -4112,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10947366-0B39-4151-9642-5AB3694F9A76}">
   <dimension ref="A2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4196,16 +4200,16 @@
       <c r="G3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="37">
         <v>0.224036781587138</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="37">
         <v>0.27962024295566434</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="37">
         <v>0.23236164020953864</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="37">
         <v>0.27963219707386583</v>
       </c>
       <c r="M3" t="s">
@@ -4595,35 +4599,107 @@
       <c r="G15" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="H15">
+        <v>2.0624713922587734E-3</v>
+      </c>
+      <c r="I15">
+        <v>4.9197003687452361E-4</v>
+      </c>
+      <c r="J15">
+        <v>0.67785483250937628</v>
+      </c>
+      <c r="K15">
+        <v>0.50952306838725425</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="G16" s="36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>1.5986672479292381E-3</v>
+      </c>
+      <c r="I16">
+        <v>9.3204368762056771E-4</v>
+      </c>
+      <c r="J16">
+        <v>0.93289751942564125</v>
+      </c>
+      <c r="K16">
+        <v>0.98031201377574684</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>1.7971480210203223E-4</v>
+      </c>
+      <c r="I17">
+        <v>5.9453286403219274E-4</v>
+      </c>
+      <c r="J17">
+        <v>0.60496992864436294</v>
+      </c>
+      <c r="K17">
+        <v>0.59833853396681724</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <v>1.7927396121043318E-5</v>
+      </c>
+      <c r="I18">
+        <v>1.3270069269547311E-4</v>
+      </c>
+      <c r="J18">
+        <v>0.45478153589129167</v>
+      </c>
+      <c r="K18">
+        <v>0.75112601375474497</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>0.23582953135590587</v>
+      </c>
+      <c r="I20">
+        <v>0.24441390440195379</v>
+      </c>
+      <c r="J20">
+        <v>3.1338443210178735E-3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.2730980274394255E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
         <v>88</v>
+      </c>
+      <c r="H21">
+        <v>1.6641898991633257E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.6340445115603962E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.24762802900946002</v>
+      </c>
+      <c r="K21">
+        <v>0.25250968810463925</v>
       </c>
     </row>
   </sheetData>

--- a/kaiseki/データ解析.xlsx
+++ b/kaiseki/データ解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="306" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E548768-59AD-4E08-8FD2-7497B215907C}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{EEC529FF-FBFF-45DD-8AC9-C6E91DF4FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE603AF9-E67A-41B6-AE58-62E0353BDB99}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
+    <workbookView xWindow="4065" yWindow="2280" windowWidth="19740" windowHeight="11220" activeTab="2" xr2:uid="{D9365B38-E4DB-4B75-A333-21E23E9261DE}"/>
   </bookViews>
   <sheets>
     <sheet name="被験者結果" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="102">
   <si>
     <t>imahashi</t>
     <phoneticPr fontId="1"/>
@@ -472,6 +472,89 @@
     <t xml:space="preserve">p </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常：事前SSE</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転：事前SSE</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常：事後SSE</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転：事後SSE</t>
+    <rPh sb="0" eb="2">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低い</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中程度</t>
+    <rPh sb="0" eb="3">
+      <t>チュウテイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高い</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +586,17 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -844,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1017,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +1041,3639 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通常：事前SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$H$24:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A16-4B00-B8F4-DEFBCF22C456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回転：事前SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$I$24:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A16-4B00-B8F4-DEFBCF22C456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通常：事後SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$J$24:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.21099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A16-4B00-B8F4-DEFBCF22C456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回転：事後SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$24:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$K$24:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A16-4B00-B8F4-DEFBCF22C456}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1333861599"/>
+        <c:axId val="1333862015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1333861599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周辺ピクセル数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333862015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="30"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333862015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="-0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>相関係数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333861599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通常：事前SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$30:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$H$30:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.46600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0B4-46DC-9593-62FDA9BFE00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回転：事前SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$30:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$I$30:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D0B4-46DC-9593-62FDA9BFE00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通常：事後SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$30:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$J$30:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.42899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0B4-46DC-9593-62FDA9BFE00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>回転：事後SSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>算出方法比較!$G$30:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>算出方法比較!$K$30:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D0B4-46DC-9593-62FDA9BFE00B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1333861599"/>
+        <c:axId val="1333862015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1333861599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周辺ピクセル数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333862015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="30"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1333862015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>相関係数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1333861599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$I$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>低い</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出方法比較!$J$52:$K$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>簡単</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>難しい</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出方法比較!$J$53:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E9F-46E4-9FE5-7C752134C820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$I$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>中程度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出方法比較!$J$52:$K$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>簡単</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>難しい</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出方法比較!$J$54:$K$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E9F-46E4-9FE5-7C752134C820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出方法比較!$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高い</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出方法比較!$J$52:$K$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>簡単</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>難しい</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出方法比較!$J$55:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E9F-46E4-9FE5-7C752134C820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="799918751"/>
+        <c:axId val="799929151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="799918751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799929151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="799929151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799918751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5646A09A-4F0B-F448-D46A-8B644428A075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16AE8744-C2AE-4899-84E9-6EA2A603CFE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1109662</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A6654C-6115-DC34-1F3F-4C01D9D48E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,131 +4990,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38" t="s">
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="38"/>
+      <c r="AE1" s="40"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="38"/>
+      <c r="AE2" s="40"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -4114,10 +7847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10947366-0B39-4151-9642-5AB3694F9A76}">
-  <dimension ref="A2:V21"/>
+  <dimension ref="A2:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4702,8 +8435,220 @@
         <v>0.25250968810463925</v>
       </c>
     </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>0.114</v>
+      </c>
+      <c r="I24">
+        <v>-0.378</v>
+      </c>
+      <c r="J24">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K24">
+        <v>-0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25" s="38">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I25" s="38">
+        <v>-0.33</v>
+      </c>
+      <c r="J25" s="38">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K25" s="38">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26" s="38">
+        <v>-0.189</v>
+      </c>
+      <c r="I26" s="38">
+        <v>-0.247</v>
+      </c>
+      <c r="J26" s="38">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="K26" s="38">
+        <v>-0.219</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <v>150</v>
+      </c>
+      <c r="H27" s="38">
+        <v>-0.35</v>
+      </c>
+      <c r="I27" s="38">
+        <v>-0.219</v>
+      </c>
+      <c r="J27" s="38">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="K27" s="38">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" s="39">
+        <v>-0.53100000000000003</v>
+      </c>
+      <c r="I30" s="39">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J30" s="39">
+        <v>-0.41799999999999998</v>
+      </c>
+      <c r="K30" s="39">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="39">
+        <v>-0.52700000000000002</v>
+      </c>
+      <c r="I31" s="39">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J31" s="39">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="K31" s="39">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32" s="39">
+        <v>-0.495</v>
+      </c>
+      <c r="I32" s="39">
+        <v>0.378</v>
+      </c>
+      <c r="J32" s="39">
+        <v>-0.376</v>
+      </c>
+      <c r="K32" s="39">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <v>150</v>
+      </c>
+      <c r="H33" s="39">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="I33" s="39">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J33" s="39">
+        <v>-0.42899999999999999</v>
+      </c>
+      <c r="K33" s="39">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="J52" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.4">
+      <c r="I55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>